--- a/data/trans_orig/P32C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB8BB336-AF0C-4987-AE6F-A1C43E3C59ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB83381-FFC6-4840-947F-AA53AE9D52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C913E94-B745-4BD0-A4B9-0206C7AF6307}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BA50893-B929-4F21-8459-D2F1080DE52D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -293,136 +293,166 @@
     <t>1,91%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
@@ -431,358 +461,304 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>3,68%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>99,18%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3206C2-45AE-4517-90FC-077A2FC377C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F34E9-AA9B-4259-9717-F29017765663}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191C644-D067-4A08-8CC4-11F7B1C428C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84112481-CBFA-40BE-BD4C-169D73D242CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,7 +2081,7 @@
         <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2096,13 @@
         <v>496432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2153,10 +2129,10 @@
         <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2200,13 @@
         <v>23278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2239,10 +2215,10 @@
         <v>3038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>12</v>
@@ -2254,13 +2230,13 @@
         <v>26316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2251,13 @@
         <v>1173062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -2290,13 +2266,13 @@
         <v>589579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>1648</v>
@@ -2305,13 +2281,13 @@
         <v>1762642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2355,13 @@
         <v>7061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2400,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2409,13 +2385,13 @@
         <v>7061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2406,13 @@
         <v>317054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>200</v>
@@ -2448,7 +2424,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2460,13 +2436,13 @@
         <v>539617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2510,13 @@
         <v>40025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2549,13 +2525,13 @@
         <v>3038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2564,13 +2540,13 @@
         <v>43063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2561,13 @@
         <v>1986548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>953</v>
@@ -2600,13 +2576,13 @@
         <v>1037511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>2819</v>
@@ -2615,13 +2591,13 @@
         <v>3024059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F4AFBA-27F0-4E9E-9D88-921CAE48CE7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52858789-F200-486F-B8B7-26133B0F93E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,7 +2689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,13 +2796,13 @@
         <v>12996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2835,13 +2811,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2850,13 +2826,13 @@
         <v>14100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2847,13 @@
         <v>338572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -2886,10 +2862,10 @@
         <v>135454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2901,13 +2877,13 @@
         <v>474027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2951,13 @@
         <v>14967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2990,13 +2966,13 @@
         <v>4184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3005,13 +2981,13 @@
         <v>19151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3002,13 @@
         <v>1228339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>684</v>
@@ -3041,13 +3017,13 @@
         <v>708916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1841</v>
@@ -3056,13 +3032,13 @@
         <v>1937254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3106,13 @@
         <v>4000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3145,13 +3121,13 @@
         <v>922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3160,13 +3136,13 @@
         <v>4922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3157,13 @@
         <v>371642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3196,10 +3172,10 @@
         <v>277593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3211,13 +3187,13 @@
         <v>649236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3261,13 @@
         <v>31963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3300,13 +3276,13 @@
         <v>6210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3315,13 +3291,13 @@
         <v>38173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,25 +3312,25 @@
         <v>1938553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
       </c>
       <c r="I14" s="7">
-        <v>1121963</v>
+        <v>1121964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>45</v>
@@ -3366,13 +3342,13 @@
         <v>3060517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3375,7 @@
         <v>1079</v>
       </c>
       <c r="I15" s="7">
-        <v>1128173</v>
+        <v>1128174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3447,7 +3423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC4198C-6A1B-420A-A839-4A07BA4B41B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E516E01-549E-43A4-84AE-DD8DFEF382DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3464,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3571,13 +3547,13 @@
         <v>9613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3586,13 +3562,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3601,13 +3577,13 @@
         <v>10516</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3598,13 @@
         <v>245832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3637,10 +3613,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3652,13 +3628,13 @@
         <v>319348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3702,13 @@
         <v>7311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3741,13 +3717,13 @@
         <v>8804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3756,13 +3732,13 @@
         <v>16114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3753,13 @@
         <v>997579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -3792,28 +3768,28 @@
         <v>647401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>1619</v>
       </c>
       <c r="N8" s="7">
-        <v>1644981</v>
+        <v>1644982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3831,7 @@
         <v>1636</v>
       </c>
       <c r="N9" s="7">
-        <v>1661095</v>
+        <v>1661096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3881,13 +3857,13 @@
         <v>3052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3911,13 +3887,13 @@
         <v>3584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3908,13 @@
         <v>347534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -3947,10 +3923,10 @@
         <v>261041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3962,13 +3938,13 @@
         <v>608575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4012,13 @@
         <v>19975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4051,13 +4027,13 @@
         <v>10238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4066,13 +4042,13 @@
         <v>30214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4063,13 @@
         <v>1590946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>1189</v>
@@ -4102,13 +4078,13 @@
         <v>981959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>2744</v>
@@ -4117,13 +4093,13 @@
         <v>2572904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB83381-FFC6-4840-947F-AA53AE9D52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A98188-B50D-4AF3-BBCC-1DAF4455975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BA50893-B929-4F21-8459-D2F1080DE52D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45F44174-5849-4868-AD6D-78249C91D7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,688 +77,712 @@
     <t>2,42%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
     <t>97,86%</t>
   </si>
   <si>
     <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F34E9-AA9B-4259-9717-F29017765663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA05D9-4F1A-42C2-A89B-4DC4E2F4BBE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,13 +1503,13 @@
         <v>21019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1524,13 @@
         <v>1041446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -1515,13 +1539,13 @@
         <v>528871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -1530,13 +1554,13 @@
         <v>1570317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,7 +1616,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1604,13 +1628,13 @@
         <v>6889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1619,13 +1643,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1634,13 +1658,13 @@
         <v>7907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1679,13 @@
         <v>343618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>185</v>
@@ -1670,10 +1694,10 @@
         <v>193114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1685,13 +1709,13 @@
         <v>536732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1783,13 @@
         <v>35262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1774,13 +1798,13 @@
         <v>8180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -1789,13 +1813,13 @@
         <v>43443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1834,13 @@
         <v>1844656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -1825,13 +1849,13 @@
         <v>886404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2677</v>
@@ -1840,13 +1864,13 @@
         <v>2731060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84112481-CBFA-40BE-BD4C-169D73D242CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D542C31F-0242-413F-9EEB-E214A36B2D3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1938,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2045,13 +2069,13 @@
         <v>9686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2063,10 +2087,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2075,13 +2099,13 @@
         <v>9686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2120,13 @@
         <v>496432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2114,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2126,13 +2150,13 @@
         <v>721801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2224,13 @@
         <v>23278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2215,13 +2239,13 @@
         <v>3038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -2230,13 +2254,13 @@
         <v>26316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2275,13 @@
         <v>1173062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -2266,28 +2290,28 @@
         <v>589579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>1648</v>
       </c>
       <c r="N8" s="7">
-        <v>1762642</v>
+        <v>1762641</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2353,7 @@
         <v>1675</v>
       </c>
       <c r="N9" s="7">
-        <v>1788958</v>
+        <v>1788957</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2343,7 +2367,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2379,13 @@
         <v>7061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2373,10 +2397,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2385,13 +2409,13 @@
         <v>7061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2430,13 @@
         <v>317054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>200</v>
@@ -2424,7 +2448,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2436,13 +2460,13 @@
         <v>539617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2534,13 @@
         <v>40025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2525,13 +2549,13 @@
         <v>3038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2540,13 +2564,13 @@
         <v>43063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2585,13 @@
         <v>1986548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>953</v>
@@ -2576,13 +2600,13 @@
         <v>1037511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>2819</v>
@@ -2591,13 +2615,13 @@
         <v>3024059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2677,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52858789-F200-486F-B8B7-26133B0F93E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006B8DA-1C99-4214-8AD9-0127B3A841BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2796,13 +2820,13 @@
         <v>12996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2811,13 +2835,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2826,13 +2850,13 @@
         <v>14100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2871,13 @@
         <v>338572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -2862,10 +2886,10 @@
         <v>135454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2877,13 +2901,13 @@
         <v>474027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2975,13 @@
         <v>14967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2966,13 +2990,13 @@
         <v>4184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2981,13 +3005,13 @@
         <v>19151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3026,13 @@
         <v>1228339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>684</v>
@@ -3017,13 +3041,13 @@
         <v>708916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1841</v>
@@ -3032,13 +3056,13 @@
         <v>1937254</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3118,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3130,13 @@
         <v>4000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3121,13 +3145,13 @@
         <v>922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3136,13 +3160,13 @@
         <v>4922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3181,13 @@
         <v>371642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3172,10 +3196,10 @@
         <v>277593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3187,13 +3211,13 @@
         <v>649236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,10 +3288,10 @@
         <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3276,13 +3300,13 @@
         <v>6210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3291,13 +3315,13 @@
         <v>38173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3336,13 @@
         <v>1938553</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
@@ -3327,13 +3351,13 @@
         <v>1121964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>2906</v>
@@ -3342,13 +3366,13 @@
         <v>3060517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E516E01-549E-43A4-84AE-DD8DFEF382DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C8F882-5878-4F60-91BA-9B7040B7611A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3440,7 +3464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3547,13 +3571,13 @@
         <v>9613</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3562,13 +3586,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3577,13 +3601,13 @@
         <v>10516</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3622,13 @@
         <v>245832</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3702,13 +3726,13 @@
         <v>7311</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3717,13 +3741,13 @@
         <v>8804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3732,13 +3756,13 @@
         <v>16114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3777,13 @@
         <v>997579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -3768,13 +3792,13 @@
         <v>647401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>1619</v>
@@ -3783,13 +3807,13 @@
         <v>1644982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3869,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3857,13 +3881,13 @@
         <v>3052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3872,13 +3896,13 @@
         <v>532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3887,13 +3911,13 @@
         <v>3584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3932,13 @@
         <v>347534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -3923,10 +3947,10 @@
         <v>261041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3938,13 +3962,13 @@
         <v>608575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4036,13 @@
         <v>19975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4027,13 +4051,13 @@
         <v>10238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4042,13 +4066,13 @@
         <v>30214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4087,13 @@
         <v>1590946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>1189</v>
@@ -4078,13 +4102,13 @@
         <v>981959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>2744</v>
@@ -4093,13 +4117,13 @@
         <v>2572904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,7 +4179,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A98188-B50D-4AF3-BBCC-1DAF4455975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D58DE933-6EB7-40C3-A114-E651D3DA84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45F44174-5849-4868-AD6D-78249C91D7E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4581EB5D-53E3-4BAB-A6C8-5E4679535B65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,718 +71,718 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA05D9-4F1A-42C2-A89B-4DC4E2F4BBE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D63DF-6958-4600-BEDE-3B8C71032F1C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1503,13 +1503,13 @@
         <v>21019</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1524,13 @@
         <v>1041446</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -1539,13 +1539,13 @@
         <v>528871</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -1554,13 +1554,13 @@
         <v>1570317</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1628,13 +1628,13 @@
         <v>6889</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1643,13 +1643,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1658,13 +1658,13 @@
         <v>7907</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1679,13 @@
         <v>343618</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>185</v>
@@ -1694,10 +1694,10 @@
         <v>193114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1709,13 +1709,13 @@
         <v>536732</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>35262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1798,13 +1798,13 @@
         <v>8180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -1813,13 +1813,13 @@
         <v>43443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1834,13 @@
         <v>1844656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -1849,13 +1849,13 @@
         <v>886404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>2677</v>
@@ -1864,13 +1864,13 @@
         <v>2731060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D542C31F-0242-413F-9EEB-E214A36B2D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D377C4-7F73-4E77-BB18-B5B6DB80F9D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1962,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2069,13 +2069,13 @@
         <v>9686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2099,13 +2099,13 @@
         <v>9686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2120,13 @@
         <v>496432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2138,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2150,13 +2150,13 @@
         <v>721801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2224,13 @@
         <v>23278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2239,13 +2239,13 @@
         <v>3038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -2254,13 +2254,13 @@
         <v>26316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2275,13 @@
         <v>1173062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -2290,28 +2290,28 @@
         <v>589579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>1648</v>
       </c>
       <c r="N8" s="7">
-        <v>1762641</v>
+        <v>1762642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2353,7 @@
         <v>1675</v>
       </c>
       <c r="N9" s="7">
-        <v>1788957</v>
+        <v>1788958</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2379,13 @@
         <v>7061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2409,13 +2409,13 @@
         <v>7061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2430,13 @@
         <v>317054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>200</v>
@@ -2448,7 +2448,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2460,13 +2460,13 @@
         <v>539617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>40025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2549,13 +2549,13 @@
         <v>3038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2564,13 +2564,13 @@
         <v>43063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2585,13 @@
         <v>1986548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>953</v>
@@ -2600,13 +2600,13 @@
         <v>1037511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>2819</v>
@@ -2615,13 +2615,13 @@
         <v>3024059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006B8DA-1C99-4214-8AD9-0127B3A841BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2F578-BAD0-4DED-97BA-4B14A3DD8F07}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2713,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2820,13 +2820,13 @@
         <v>12996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2835,13 +2835,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2850,13 +2850,13 @@
         <v>14100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>338572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -2886,10 +2886,10 @@
         <v>135454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2901,13 +2901,13 @@
         <v>474027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2975,13 @@
         <v>14967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2990,13 +2990,13 @@
         <v>4184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3005,13 +3005,13 @@
         <v>19151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>1228339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>684</v>
@@ -3041,13 +3041,13 @@
         <v>708916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>1841</v>
@@ -3056,13 +3056,13 @@
         <v>1937254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3130,13 +3130,13 @@
         <v>4000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3145,13 +3145,13 @@
         <v>922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3160,13 +3160,13 @@
         <v>4922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3181,13 @@
         <v>371642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3196,10 +3196,10 @@
         <v>277593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3211,13 +3211,13 @@
         <v>649236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3285,13 @@
         <v>31963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3300,13 +3300,13 @@
         <v>6210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3315,13 +3315,13 @@
         <v>38173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,28 +3336,28 @@
         <v>1938553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
       </c>
       <c r="I14" s="7">
-        <v>1121964</v>
+        <v>1121963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>2906</v>
@@ -3366,13 +3366,13 @@
         <v>3060517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3399,7 @@
         <v>1079</v>
       </c>
       <c r="I15" s="7">
-        <v>1128174</v>
+        <v>1128173</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C8F882-5878-4F60-91BA-9B7040B7611A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C1412-11AB-416E-ABA5-8B9CBCB59907}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3464,7 +3464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3571,13 +3571,13 @@
         <v>9613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3586,13 +3586,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3601,13 +3601,13 @@
         <v>10516</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3622,13 @@
         <v>245832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3637,10 +3637,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3652,13 +3652,13 @@
         <v>319348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3726,13 @@
         <v>7311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3741,13 +3741,13 @@
         <v>8804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3756,13 +3756,13 @@
         <v>16114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3777,13 @@
         <v>997579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
@@ -3792,28 +3792,28 @@
         <v>647401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>1619</v>
       </c>
       <c r="N8" s="7">
-        <v>1644982</v>
+        <v>1644981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
         <v>1636</v>
       </c>
       <c r="N9" s="7">
-        <v>1661096</v>
+        <v>1661095</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3881,13 @@
         <v>3052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3896,13 +3896,13 @@
         <v>532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3911,13 +3911,13 @@
         <v>3584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3932,13 @@
         <v>347534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -3947,10 +3947,10 @@
         <v>261041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3962,13 +3962,13 @@
         <v>608575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4036,13 @@
         <v>19975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4051,13 +4051,13 @@
         <v>10238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4066,13 +4066,13 @@
         <v>30214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4087,13 @@
         <v>1590946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>1189</v>
@@ -4102,13 +4102,13 @@
         <v>981959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>2744</v>
@@ -4117,10 +4117,10 @@
         <v>2572904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>140</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D58DE933-6EB7-40C3-A114-E651D3DA84C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A5F81B-D00B-4B91-9856-05ECC6BC1469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4581EB5D-53E3-4BAB-A6C8-5E4679535B65}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1ACDF07D-0921-4232-B682-FFC69FC756AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -617,97 +617,103 @@
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -716,16 +722,19 @@
     <t>1,16%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -737,52 +746,55 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D63DF-6958-4600-BEDE-3B8C71032F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8C0BC5-73C6-498A-A988-E36A0CA0CC49}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D377C4-7F73-4E77-BB18-B5B6DB80F9D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C19CC-186A-49DB-8899-6A5B78002BA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2302,7 +2314,7 @@
         <v>1648</v>
       </c>
       <c r="N8" s="7">
-        <v>1762642</v>
+        <v>1762641</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>100</v>
@@ -2353,7 +2365,7 @@
         <v>1675</v>
       </c>
       <c r="N9" s="7">
-        <v>1788958</v>
+        <v>1788957</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2696,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2F578-BAD0-4DED-97BA-4B14A3DD8F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732F8AE8-E8A1-47D4-B91A-1B1287CA1149}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,7 +3035,7 @@
         <v>1157</v>
       </c>
       <c r="D8" s="7">
-        <v>1228339</v>
+        <v>1228338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>153</v>
@@ -3074,7 +3086,7 @@
         <v>1171</v>
       </c>
       <c r="D9" s="7">
-        <v>1243306</v>
+        <v>1243305</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3447,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C1412-11AB-416E-ABA5-8B9CBCB59907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E364D3B6-1BB0-4F6C-89B7-305516D90335}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,46 +3580,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>9613</v>
+        <v>9092</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>10516</v>
+        <v>9946</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,28 +3631,28 @@
         <v>303</v>
       </c>
       <c r="D5" s="7">
-        <v>245832</v>
+        <v>234865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>73516</v>
+        <v>66479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3649,16 +3661,16 @@
         <v>424</v>
       </c>
       <c r="N5" s="7">
-        <v>319348</v>
+        <v>301344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3682,7 @@
         <v>315</v>
       </c>
       <c r="D6" s="7">
-        <v>255445</v>
+        <v>243957</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3685,7 +3697,7 @@
         <v>123</v>
       </c>
       <c r="I6" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3700,7 +3712,7 @@
         <v>438</v>
       </c>
       <c r="N6" s="7">
-        <v>329864</v>
+        <v>311290</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3723,46 +3735,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>7311</v>
+        <v>6809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>8804</v>
+        <v>7900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>16114</v>
+        <v>14709</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,28 +3786,28 @@
         <v>909</v>
       </c>
       <c r="D8" s="7">
-        <v>997579</v>
+        <v>978084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>710</v>
       </c>
       <c r="I8" s="7">
-        <v>647401</v>
+        <v>701273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>217</v>
@@ -3804,16 +3816,16 @@
         <v>1619</v>
       </c>
       <c r="N8" s="7">
-        <v>1644981</v>
+        <v>1679358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3837,7 @@
         <v>917</v>
       </c>
       <c r="D9" s="7">
-        <v>1004890</v>
+        <v>984893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3840,7 +3852,7 @@
         <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>656205</v>
+        <v>709173</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3855,7 +3867,7 @@
         <v>1636</v>
       </c>
       <c r="N9" s="7">
-        <v>1661095</v>
+        <v>1694067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3878,46 +3890,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3052</v>
+        <v>2916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3584</v>
+        <v>3414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,28 +3941,28 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>347534</v>
+        <v>341337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
       </c>
       <c r="I11" s="7">
-        <v>261041</v>
+        <v>245672</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -3959,16 +3971,16 @@
         <v>701</v>
       </c>
       <c r="N11" s="7">
-        <v>608575</v>
+        <v>587009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +3992,7 @@
         <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>350586</v>
+        <v>344253</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3995,7 +4007,7 @@
         <v>359</v>
       </c>
       <c r="I12" s="7">
-        <v>261573</v>
+        <v>246170</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4010,7 +4022,7 @@
         <v>706</v>
       </c>
       <c r="N12" s="7">
-        <v>612159</v>
+        <v>590423</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4033,46 +4045,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>19975</v>
+        <v>18817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>10238</v>
+        <v>9252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>30214</v>
+        <v>28069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,46 +4096,46 @@
         <v>1555</v>
       </c>
       <c r="D14" s="7">
-        <v>1590946</v>
+        <v>1554287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>1189</v>
       </c>
       <c r="I14" s="7">
-        <v>981959</v>
+        <v>1013425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>2744</v>
       </c>
       <c r="N14" s="7">
-        <v>2572904</v>
+        <v>2567711</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4147,7 @@
         <v>1579</v>
       </c>
       <c r="D15" s="7">
-        <v>1610921</v>
+        <v>1573104</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4150,7 +4162,7 @@
         <v>1201</v>
       </c>
       <c r="I15" s="7">
-        <v>992197</v>
+        <v>1022677</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4165,7 +4177,7 @@
         <v>2780</v>
       </c>
       <c r="N15" s="7">
-        <v>2603118</v>
+        <v>2595780</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
